--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3087268.568157592</v>
+        <v>3193342.166310436</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8293270.506198139</v>
+        <v>8308422.42132587</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>272.3253450496802</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>74.322627841559</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>173.3698779174944</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>69.46007239278462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>273.8291007725566</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>310.4203810663456</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>114.4746605491558</v>
+        <v>8.99570122399048</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693911</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>351.9721975394173</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>272.5734728201254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>52.79913863645188</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695592</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>27.34574348918529</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>164.7131308010987</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>60.42721558712923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>21.35866177150567</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>211.5497439062044</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>142.9017229193772</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>67.10592483573285</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>248.6054035966357</v>
       </c>
       <c r="X25" t="n">
-        <v>178.4941061338674</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.8241514613412</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>106.3048907942296</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.94435783112388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>6.228861054224361</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>181.6459914616344</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695513</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>144.6100405317638</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X37" t="n">
-        <v>151.0446456820666</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="38">
@@ -3554,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3709,25 +3711,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>111.321323070213</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>117.4665281367395</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>166.5451136812779</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>37.01163236946515</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3977,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>87.82057320600153</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>25.52471385612602</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1488.368453810659</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.773976541745</v>
+        <v>620.8411572468201</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556431</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="X4" t="n">
-        <v>584.5841306576258</v>
+        <v>1016.7548251959</v>
       </c>
       <c r="Y4" t="n">
-        <v>514.4224413719847</v>
+        <v>795.96224605237</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>2364.718577705862</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X5" t="n">
-        <v>1991.252819444782</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1601.11348746897</v>
+        <v>1441.15107294488</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.143086683856</v>
+        <v>314.9273982680232</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576258</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.7915515140957</v>
+        <v>314.9273982680232</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659.057359339775</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C8" t="n">
-        <v>1290.094842399363</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1290.094842399363</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.796531379709</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.657199403897</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2489.924953962486</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="C10" t="n">
-        <v>2320.988771034579</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>2170.872131622243</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>2022.95903803985</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>1876.06909054194</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916659</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>3235.775364366699</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>3014.008748936225</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>2724.905882061869</v>
+        <v>1238.515308262496</v>
       </c>
       <c r="V10" t="n">
-        <v>2724.905882061869</v>
+        <v>1238.515308262496</v>
       </c>
       <c r="W10" t="n">
-        <v>2724.905882061869</v>
+        <v>1238.515308262496</v>
       </c>
       <c r="X10" t="n">
-        <v>2724.905882061869</v>
+        <v>1010.525757364479</v>
       </c>
       <c r="Y10" t="n">
-        <v>2671.573418792726</v>
+        <v>789.7331782209488</v>
       </c>
     </row>
     <row r="11">
@@ -5033,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,10 +5077,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.28814409505</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1815.886107649656</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2367.795837888943</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.3315352860773</v>
+        <v>984.5772922261136</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>815.6411092982067</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>665.524469885871</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>517.6113763034779</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>370.7214288055675</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>203.5253295204474</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2213.540480033573</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1993.939015056514</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1704.863788400712</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1450.179300194825</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1160.762130157864</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>932.7725792598471</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.980000116317</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5361,22 +5363,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424041</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>378.6527890600109</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>378.6527890600109</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3046.798896214207</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C19" t="n">
-        <v>2877.8627132863</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>2877.8627132863</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>2729.949619703907</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>2583.059672205996</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>3966.646661122954</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>3677.229491085994</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X19" t="n">
-        <v>3449.239940187977</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y19" t="n">
-        <v>3228.447361044447</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3047.140839595365</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="C22" t="n">
-        <v>2878.204656667458</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="D22" t="n">
-        <v>2878.204656667458</v>
+        <v>2862.291518351956</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.859482001421</v>
+        <v>2714.378424769563</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
         <v>2337.686731866304</v>
@@ -5944,16 +5946,16 @@
         <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.571434467152</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.581883569135</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.789304425605</v>
+        <v>3194.056622594531</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>3050.708758511722</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>2881.772575583815</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>2881.772575583815</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>2733.859482001422</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>2586.969534503512</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>3681.139353383509</v>
       </c>
       <c r="X25" t="n">
-        <v>1031.03282245656</v>
+        <v>3453.149802485492</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>3232.357223341962</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2858.491853286439</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>2858.491853286439</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3040.140318116678</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>2715.159942084667</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>3210.485548300426</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>3807.864035926978</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>4267.210002903526</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>4267.210002903526</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1022.872235754091</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>853.936052826184</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>703.8194134138482</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>555.9063198314551</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>409.0163723335447</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>241.8202730484247</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>100.1084418906227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>1425.313279727861</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.520700584331</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6962,16 +6964,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -6980,7 +6982,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2772.332236394372</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M36" t="n">
-        <v>3369.710724020924</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N36" t="n">
-        <v>3997.308687575531</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575531</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>2794.507755891618</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>2794.507755891618</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>2794.507755891618</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>2646.594662309225</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>2646.594662309225</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>2479.398563024105</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4477.716700639113</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4258.115235662054</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>3969.040009006252</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3714.355520800365</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3424.938350763405</v>
       </c>
       <c r="X37" t="n">
-        <v>991.7138464380538</v>
+        <v>3196.948799865388</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>2976.156220721858</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7202,22 +7204,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7256,25 @@
         <v>2381.235169913446</v>
       </c>
       <c r="K39" t="n">
-        <v>2381.235169913446</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L39" t="n">
-        <v>2381.235169913446</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M39" t="n">
-        <v>2817.800993781637</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N39" t="n">
-        <v>3445.398957336244</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="O39" t="n">
-        <v>3997.308687575531</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P39" t="n">
-        <v>4420.931837070599</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R39" t="n">
         <v>4690.833152398593</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,19 +7429,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,13 +7484,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
         <v>427.7414352191925</v>
@@ -7497,16 +7499,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>988.1395539230172</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C43" t="n">
-        <v>819.2033709951103</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>669.0867315827745</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.987318831765</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1618.570148794804</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.580597896787</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>1169.788018753257</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362671</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192468</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615664</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334537</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673286</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.54608366783</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694715</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740623</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385789</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385789</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385789</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K45" t="n">
-        <v>2565.51329955701</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L45" t="n">
-        <v>3060.838905772769</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="M45" t="n">
-        <v>3658.21739339932</v>
+        <v>3659.984780604089</v>
       </c>
       <c r="N45" t="n">
-        <v>4285.815356953927</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="O45" t="n">
-        <v>4457.57149202371</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.57149202371</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301204</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022978</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566163</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.23547033442</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606219</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400686</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635732</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>119.599202296584</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>119.599202296584</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>112.9489693570386</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>16.31315520054585</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>62.35543909864924</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>144.1654765207632</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>14.15991148283277</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.532239727191978</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>78.3151231871984</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>37.91759473995526</v>
       </c>
       <c r="X25" t="n">
-        <v>47.21554925516975</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24618,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.76050189075356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>42.31058222398278</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.6402955209709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>75.03697526434117</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>104.8770068749566</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>36.41624546988061</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>74.66500970697058</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>106.0841272570753</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>13.28686650065944</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>109.422330277104</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>79.42624789262631</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>726340.8201764083</v>
+        <v>734065.3259278004</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726340.8201764083</v>
+        <v>734065.3259278004</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739157</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739157</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739157</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309559</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309554</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309552</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744257</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
+        <v>8727.256391744246</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
@@ -26445,19 +26447,19 @@
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744286</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744442</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="N4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="O4" t="n">
-        <v>8727.256391744329</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744362</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-806181.4288208336</v>
+        <v>-624800.1443614999</v>
       </c>
       <c r="C6" t="n">
-        <v>522563.3169067589</v>
+        <v>489951.6392144202</v>
       </c>
       <c r="D6" t="n">
-        <v>522563.316906759</v>
+        <v>329936.1764664215</v>
       </c>
       <c r="E6" t="n">
-        <v>270991.0267057489</v>
+        <v>270991.0267057485</v>
       </c>
       <c r="F6" t="n">
         <v>596403.4885131044</v>
       </c>
       <c r="G6" t="n">
-        <v>596403.488513104</v>
+        <v>596403.4885131037</v>
       </c>
       <c r="H6" t="n">
+        <v>596403.4885131043</v>
+      </c>
+      <c r="I6" t="n">
         <v>596403.4885131042</v>
       </c>
-      <c r="I6" t="n">
-        <v>596403.4885131037</v>
-      </c>
       <c r="J6" t="n">
-        <v>378872.2861158265</v>
+        <v>428798.3107031218</v>
       </c>
       <c r="K6" t="n">
+        <v>596403.4885131042</v>
+      </c>
+      <c r="L6" t="n">
+        <v>548109.5185049134</v>
+      </c>
+      <c r="M6" t="n">
+        <v>511348.4605775918</v>
+      </c>
+      <c r="N6" t="n">
         <v>596403.4885131043</v>
-      </c>
-      <c r="L6" t="n">
-        <v>596403.4885131039</v>
-      </c>
-      <c r="M6" t="n">
-        <v>511348.4605775924</v>
-      </c>
-      <c r="N6" t="n">
-        <v>596403.4885131039</v>
       </c>
       <c r="O6" t="n">
         <v>596403.4885131039</v>
       </c>
       <c r="P6" t="n">
-        <v>596403.4885131039</v>
+        <v>596403.4885131044</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>110.4084966138004</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>311.9153108144946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6.462102264442905</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.1245809593102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>80.8539408481264</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>38.82058765106746</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>52.77216054947205</v>
+        <v>158.2511198746374</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>65.75137080161642</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>29.95817253284451</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>13.63836538548748</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.7855147156429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="38">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>284.1014732918236</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32014,7 +32016,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
         <v>593.8732233669223</v>
@@ -32081,7 +32083,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32317,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>288.8958573929172</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>251.8861049150245</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>324.5433647340731</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>353.6230700590495</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>595.3275373121701</v>
       </c>
       <c r="O30" t="n">
-        <v>338.6542681503486</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>361.1081696176607</v>
       </c>
       <c r="M33" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>531.8166820790245</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,7 +33754,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33974,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868574</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>359.709698549663</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34217,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N42" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34457,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>509.0826837242971</v>
       </c>
       <c r="O45" t="n">
-        <v>316.0872899694772</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>602.2300008170298</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>602.2300008170293</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>150.1270658774933</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35662,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35729,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312247</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>157.5541453095838</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316912</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.4093308120547</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>211.4890361370311</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288368</v>
       </c>
       <c r="O30" t="n">
-        <v>196.0580237059041</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>222.5537898377865</v>
       </c>
       <c r="M33" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>393.2623022991504</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,19 +37624,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648392</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663297</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N42" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38105,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>377.7409716409638</v>
       </c>
       <c r="O45" t="n">
-        <v>173.4910455250327</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3193342.166310436</v>
+        <v>3189246.52480567</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.3253450496802</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>128.4095443148202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.3698779174944</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>88.42832125291881</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>273.8291007725566</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>21.09877532957687</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>8.99570122399048</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>299.5215209693911</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>272.5734728201254</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812095</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>27.34574348918529</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560546</v>
       </c>
     </row>
     <row r="15">
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>118.6708469029954</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>211.5497439062044</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>67.10592483573285</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>248.6054035966357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>21.90286287505422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>106.3048907942296</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>181.6459914616344</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>144.6100405317638</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>32.44181015857173</v>
       </c>
     </row>
     <row r="38">
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>117.4665281367395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.5451136812779</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>87.82057320600153</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1213.292347699871</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4333,7 +4333,7 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2307.933510507616</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2307.933510507616</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1976.870623164045</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1624.101967893931</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.507785786471</v>
+        <v>1250.636209632851</v>
       </c>
       <c r="Y2" t="n">
-        <v>1488.368453810659</v>
+        <v>860.4968776570395</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.8411572468201</v>
+        <v>922.4106512993806</v>
       </c>
       <c r="C4" t="n">
-        <v>451.9049743189132</v>
+        <v>753.4744683714737</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>603.3578289591379</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>455.4447353767448</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>308.5547878788344</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>140.568323187113</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V4" t="n">
-        <v>1244.744376093917</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.744376093917</v>
+        <v>1150.400202197398</v>
       </c>
       <c r="X4" t="n">
-        <v>1016.7548251959</v>
+        <v>922.4106512993806</v>
       </c>
       <c r="Y4" t="n">
-        <v>795.96224605237</v>
+        <v>922.4106512993806</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.551232880758</v>
+        <v>1966.993846941858</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.551232880758</v>
+        <v>1598.031330001447</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>1239.765631394696</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>853.9773787964518</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>442.9914740068443</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.290404920692</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1831.290404920692</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1441.15107294488</v>
+        <v>2353.59368700598</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>314.9273982680232</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>825.137147448514</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>535.7199774115534</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>535.7199774115534</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>314.9273982680232</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1892.963660013482</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4843,13 +4843,13 @@
         <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013482</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608.0847133907091</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1238.515308262496</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1238.515308262496</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1238.515308262496</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1010.525757364479</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>789.7331782209488</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.5772922261136</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>815.6411092982067</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>665.524469885871</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>517.6113763034779</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>370.7214288055675</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>203.5253295204474</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>979.2799367326791</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5509,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
@@ -5670,7 +5670,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1185.282073811479</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.4894946679487</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3012.408157764291</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>3012.408157764291</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>2862.291518351956</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>2714.378424769563</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3414.849201738061</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>3194.056622594531</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3050.708758511722</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2881.772575583815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2881.772575583815</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.859482001422</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503512</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218392</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3932.25592267304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3681.139353383509</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3453.149802485492</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3232.357223341962</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,31 +6223,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.07903472198</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>198.0274703142544</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>198.0274703142544</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300426</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3807.864035926978</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>4267.210002903526</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903526</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.843151638089</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101821</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,16 +6964,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -6982,7 +6982,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7022,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2794.507755891618</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>2794.507755891618</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>2794.507755891618</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>2646.594662309225</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309225</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024105</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4477.716700639113</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4258.115235662054</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>3969.040009006252</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>3714.355520800365</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>3424.938350763405</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>3196.948799865388</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>2976.156220721858</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7204,7 +7204,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>4033.948342528643</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
         <v>929.7309773356195</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>3062.606292977538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>3659.984780604089</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>4033.948342528643</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1018.438627038651</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1420.879671012421</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1200.087091868891</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>112.9489693570386</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>62.35543909864924</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>14.15991148283277</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>78.3151231871984</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>37.91759473995526</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.3918499711696</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>42.31058222398278</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>104.8770068749566</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>36.41624546988061</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.142843193523</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.28686650065944</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25842,7 +25842,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>79.42624789262631</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739157</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="I2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744202</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744238</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744246</v>
@@ -26441,16 +26441,16 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744442</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-624800.1443614999</v>
+        <v>-624800.1443614995</v>
       </c>
       <c r="C6" t="n">
-        <v>489951.6392144202</v>
+        <v>489951.63921442</v>
       </c>
       <c r="D6" t="n">
-        <v>329936.1764664215</v>
+        <v>329936.1764664209</v>
       </c>
       <c r="E6" t="n">
-        <v>270991.0267057485</v>
+        <v>270643.6474513916</v>
       </c>
       <c r="F6" t="n">
-        <v>596403.4885131044</v>
+        <v>596056.1092587468</v>
       </c>
       <c r="G6" t="n">
-        <v>596403.4885131037</v>
+        <v>596056.109258747</v>
       </c>
       <c r="H6" t="n">
-        <v>596403.4885131043</v>
+        <v>596056.1092587472</v>
       </c>
       <c r="I6" t="n">
-        <v>596403.4885131042</v>
+        <v>596056.1092587472</v>
       </c>
       <c r="J6" t="n">
-        <v>428798.3107031218</v>
+        <v>428450.9314487646</v>
       </c>
       <c r="K6" t="n">
-        <v>596403.4885131042</v>
+        <v>596056.1092587472</v>
       </c>
       <c r="L6" t="n">
-        <v>548109.5185049134</v>
+        <v>547762.1392505565</v>
       </c>
       <c r="M6" t="n">
-        <v>511348.4605775918</v>
+        <v>511001.0813232352</v>
       </c>
       <c r="N6" t="n">
-        <v>596403.4885131043</v>
+        <v>596056.1092587472</v>
       </c>
       <c r="O6" t="n">
-        <v>596403.4885131039</v>
+        <v>596056.1092587472</v>
       </c>
       <c r="P6" t="n">
-        <v>596403.4885131044</v>
+        <v>596056.1092587472</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26798,25 +26798,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.4084966138004</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>78.24864066541357</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.462102264442905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>58.82318790221004</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>80.8539408481264</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>390.4489274433771</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>158.2511198746374</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>65.75137080161642</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>13.63836538548748</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.469217481919457e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.012949724099599e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>422.1299181110988</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,37 +32548,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>251.8861049150245</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>324.5433647340731</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>595.3275373121701</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>361.1081696176607</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>359.709698549663</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M42" t="n">
-        <v>560.1612034965808</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>509.0826837242971</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>602.2300008170298</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>602.2300008170293</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>283.5755383312247</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>120.5443928316912</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>182.4093308120547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288368</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>222.5537898377865</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>485.6519634391653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663297</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M42" t="n">
-        <v>418.0271695745625</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>377.7409716409638</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3189246.52480567</v>
+        <v>3191007.055108457</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>169.8512513837136</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>128.4095443148202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>88.42832125291881</v>
+        <v>30.95313829082778</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09877532957687</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>176.223217518073</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.98074812542808</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145766</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>85.47654389282634</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812095</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560546</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629297</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176204</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.44181015857173</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227934</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.8970375929177</v>
+        <v>2057.32755894284</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2307.933510507616</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2307.933510507616</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1976.870623164045</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.101967893931</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>1250.636209632851</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>860.4968776570395</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
         <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.4106512993806</v>
+        <v>864.354910933632</v>
       </c>
       <c r="C4" t="n">
-        <v>753.4744683714737</v>
+        <v>695.4187280057251</v>
       </c>
       <c r="D4" t="n">
-        <v>603.3578289591379</v>
+        <v>545.3020885933894</v>
       </c>
       <c r="E4" t="n">
-        <v>455.4447353767448</v>
+        <v>397.3889950109963</v>
       </c>
       <c r="F4" t="n">
-        <v>308.5547878788344</v>
+        <v>250.4990475130859</v>
       </c>
       <c r="G4" t="n">
-        <v>140.568323187113</v>
+        <v>82.5125828213645</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234359</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1150.400202197398</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>922.4106512993806</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>922.4106512993806</v>
+        <v>864.354910933632</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1966.993846941858</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C5" t="n">
-        <v>1598.031330001447</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D5" t="n">
-        <v>1239.765631394696</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>853.9773787964518</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>442.9914740068443</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2259.63687090837</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2006.05581017255</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>2006.05581017255</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.59368700598</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="X5" t="n">
-        <v>2353.59368700598</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="Y5" t="n">
-        <v>2353.59368700598</v>
+        <v>1653.287154902436</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4637,10 +4637,10 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,22 +4649,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4831,22 +4831,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
         <v>2731.767278738087</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1840.954604762406</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5266,28 +5266,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,31 +5296,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,16 +5512,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5533,10 +5533,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5545,19 +5545,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,7 +5597,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,13 +5928,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,46 +6217,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1977.461080510508</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6481,34 +6481,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6618,55 +6618,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589448</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780645</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>112.9792378643585</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.0397529241845</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.142843193523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.9259388694754591</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739157</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
@@ -26426,16 +26426,16 @@
         <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744202</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744238</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744226</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
@@ -26444,13 +26444,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744217</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744224</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-624800.1443614995</v>
+        <v>-624800.144361499</v>
       </c>
       <c r="C6" t="n">
-        <v>489951.63921442</v>
+        <v>489951.6392144201</v>
       </c>
       <c r="D6" t="n">
-        <v>329936.1764664209</v>
+        <v>329936.1764664212</v>
       </c>
       <c r="E6" t="n">
-        <v>270643.6474513916</v>
+        <v>270956.2887803132</v>
       </c>
       <c r="F6" t="n">
-        <v>596056.1092587468</v>
+        <v>596368.7505876683</v>
       </c>
       <c r="G6" t="n">
-        <v>596056.109258747</v>
+        <v>596368.750587668</v>
       </c>
       <c r="H6" t="n">
-        <v>596056.1092587472</v>
+        <v>596368.7505876685</v>
       </c>
       <c r="I6" t="n">
-        <v>596056.1092587472</v>
+        <v>596368.7505876684</v>
       </c>
       <c r="J6" t="n">
-        <v>428450.9314487646</v>
+        <v>428763.5727776857</v>
       </c>
       <c r="K6" t="n">
-        <v>596056.1092587472</v>
+        <v>596368.7505876683</v>
       </c>
       <c r="L6" t="n">
-        <v>547762.1392505565</v>
+        <v>548074.780579478</v>
       </c>
       <c r="M6" t="n">
-        <v>511001.0813232352</v>
+        <v>511313.7226521565</v>
       </c>
       <c r="N6" t="n">
-        <v>596056.1092587472</v>
+        <v>596368.7505876685</v>
       </c>
       <c r="O6" t="n">
-        <v>596056.1092587472</v>
+        <v>596368.7505876684</v>
       </c>
       <c r="P6" t="n">
-        <v>596056.1092587472</v>
+        <v>596368.7505876687</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26798,7 +26798,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26807,22 +26807,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.882590279767</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>78.24864066541357</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>58.82318790221004</v>
+        <v>116.2983708643011</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>390.4489274433771</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>30.43496746216073</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.255751353301065</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.443513141477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>200.7352943127866</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.469217481919457e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.012949724099599e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28617,10 +28617,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.30232927890104e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200299</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681188</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215493</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366966</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
